--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\repos\br3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2016D8E-9A60-46E4-A9BE-54121E555A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C24741-9CA7-4796-8044-92BC9DF17797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{8220847F-6506-48F0-B82A-383ABFBD9DB4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{8220847F-6506-48F0-B82A-383ABFBD9DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>ADO (MOSI)</t>
-  </si>
-  <si>
     <t>SDA (MISO)</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Other D17</t>
+  </si>
+  <si>
+    <t>ADO (MOSI?)</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,19 +930,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,16 +953,16 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -970,10 +970,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1005,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -1025,7 +1025,7 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -1065,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1154,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1174,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,29 +1241,29 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,29 +1296,29 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,24 +1326,24 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\repos\br3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C24741-9CA7-4796-8044-92BC9DF17797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D99482-5BA8-4F63-8543-EFA5FE0B6C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{8220847F-6506-48F0-B82A-383ABFBD9DB4}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3960" windowWidth="18195" windowHeight="10110" activeTab="1" xr2:uid="{8220847F-6506-48F0-B82A-383ABFBD9DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
